--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lafon\Documents\Francis\depotLocalGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DD5A1-6FC1-477F-979B-B01C4B09EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D27F59-F22E-470C-83DC-24D80AEDCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDD283BF-4019-4F4B-B35B-E68A8494B4B0}"/>
+    <workbookView xWindow="4335" yWindow="7485" windowWidth="21600" windowHeight="11295" xr2:uid="{BDD283BF-4019-4F4B-B35B-E68A8494B4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>salut voici un fichier excel</t>
+  </si>
+  <si>
+    <t>Voici la suite du projet</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A1DFE8-E956-4B25-AFCF-783F6C62F988}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
